--- a/data/trans_dic/P21D_4_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21D_4_R-Provincia-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.02308540846102958</v>
+        <v>0.0180201193732082</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.008765452084940995</v>
+        <v>0.009685446260222032</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>0.00765950721352962</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.006172750495314312</v>
+        <v>0.006172750495314314</v>
       </c>
     </row>
     <row r="8">
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002325425983515435</v>
+        <v>0.002356041758232923</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001287465134180746</v>
+        <v>0.001554032791161508</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02414740345895825</v>
+        <v>0.02288711869194431</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02026245699729344</v>
+        <v>0.02117291139547758</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01487326764124593</v>
+        <v>0.01567062202086137</v>
       </c>
     </row>
     <row r="10">
@@ -673,10 +673,10 @@
         <v>0.007087387113855551</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.0367114041415376</v>
+        <v>0.03671140414153759</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.02519650837383752</v>
+        <v>0.02519650837383753</v>
       </c>
     </row>
     <row r="11">
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01713583076126857</v>
+        <v>0.01750816826790179</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01104176508090065</v>
+        <v>0.01198346908177615</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0362848182511955</v>
+        <v>0.0496144800474055</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06501220889348795</v>
+        <v>0.069749644403219</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04587598211069644</v>
+        <v>0.04656553475675515</v>
       </c>
     </row>
     <row r="13">
@@ -757,11 +757,11 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03878678922330315</v>
+        <v>0.03794507407686153</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.01921158252506416</v>
+        <v>0.01778755903360866</v>
       </c>
     </row>
     <row r="16">
@@ -794,10 +794,10 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.004540074361631852</v>
+        <v>0.004693831319598666</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002257967794860918</v>
+        <v>0.002271613073802984</v>
       </c>
     </row>
     <row r="18">
@@ -809,10 +809,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.04143328542684587</v>
+        <v>0.04305025911818153</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02320220633694473</v>
+        <v>0.02420521133832278</v>
       </c>
     </row>
     <row r="19">
@@ -888,10 +888,10 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.003704714868642255</v>
+        <v>0.003693809949449838</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.001018873934610752</v>
+        <v>0.001897456483443797</v>
       </c>
     </row>
     <row r="24">
@@ -903,10 +903,10 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.03033528532887778</v>
+        <v>0.02999844395294509</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01428776396627045</v>
+        <v>0.01454853322141697</v>
       </c>
     </row>
     <row r="25">
@@ -954,10 +954,10 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.01400654542233281</v>
+        <v>0.01174010814927048</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.006709445909215053</v>
+        <v>0.00663217921393301</v>
       </c>
     </row>
     <row r="28">
@@ -989,13 +989,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0007177390548879274</v>
+        <v>0.0004214788799540828</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.00538517488020119</v>
+        <v>0.005319653471980081</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.003544061730353377</v>
+        <v>0.00352901250015687</v>
       </c>
     </row>
     <row r="30">
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.005644887167911478</v>
+        <v>0.005370324198052581</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.013396874165951</v>
+        <v>0.01318302217112902</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.008180528001902191</v>
+        <v>0.008032887308279724</v>
       </c>
     </row>
     <row r="31">
@@ -1174,10 +1174,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>3202</v>
+        <v>2500</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>2568</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="8">
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>609</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11">
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5354</v>
+        <v>5075</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5097</v>
+        <v>5326</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7039</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="12">
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2508</v>
+        <v>2562</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2643</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="15">
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3376</v>
+        <v>4617</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9514</v>
+        <v>10207</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10983</v>
+        <v>11148</v>
       </c>
     </row>
     <row r="16">
@@ -1385,11 +1385,11 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6767</v>
+        <v>6620</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>7223</v>
+        <v>6688</v>
       </c>
     </row>
     <row r="20">
@@ -1439,10 +1439,10 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23">
@@ -1454,10 +1454,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>3289</v>
+        <v>3418</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3801</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="24">
@@ -1567,10 +1567,10 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>722</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="31">
@@ -1582,10 +1582,10 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>10805</v>
+        <v>10685</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10130</v>
+        <v>10315</v>
       </c>
     </row>
     <row r="32">
@@ -1650,10 +1650,10 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>5701</v>
+        <v>4778</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>5151</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="36">
@@ -1702,13 +1702,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1126</v>
+        <v>661</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>9125</v>
+        <v>9013</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>11563</v>
+        <v>11514</v>
       </c>
     </row>
     <row r="39">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>8853</v>
+        <v>8422</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>22699</v>
+        <v>22337</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>26690</v>
+        <v>26208</v>
       </c>
     </row>
     <row r="40">
